--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,30 +864,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B2H5I</t>
+          <t>B2R2B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5049998</v>
+        <v>2946260</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tamf2c0477</t>
+          <t>tamf2c0673</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6583414RT1</t>
+          <t>6582149RT1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2060ASDFDRG4</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>813</v>
-      </c>
+          <t>HU92630QPWPRQ1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>1</v>
       </c>
@@ -899,7 +897,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2946260</v>
+        <v>5046249</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -918,7 +916,7 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -928,7 +926,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5046249</v>
+        <v>5046248</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -947,65 +945,63 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B2R2B</t>
+          <t>B2G1N</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5046248</v>
+        <v>2928991</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tamf2c0673</t>
+          <t>tain2c0184</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6582149RT1</t>
+          <t>6402818W</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HU92630QPWPRQ1</t>
+          <t>2ELVDS84ADGGR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B2E3B</t>
+          <t>B2A1S</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2989536</v>
+        <v>2978221</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tain4m0150</t>
+          <t>tain2m0280</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6513692W1</t>
+          <t>6517970W</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LT1014DMDW</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>693</v>
-      </c>
+          <t>ADS1298IPAGR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>1</v>
       </c>
@@ -1013,75 +1009,73 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B2G1N</t>
+          <t>B2A1S</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2928991</v>
+        <v>2978221</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tain2c0184</t>
+          <t>tain2m0280</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6402818W</t>
+          <t>6517970W</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2ELVDS84ADGGR</t>
+          <t>ADS1298IPAGR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B2E1A</t>
+          <t>B2A1R</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5050886</v>
+        <v>2978222</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tain4m0095</t>
+          <t>tain2m0280</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6509360W1</t>
+          <t>6517970W</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SN9A040DWR</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>568</v>
-      </c>
+          <t>ADS1298IPAGR</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B2A1S</t>
+          <t>B2A1R</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2978221</v>
+        <v>2978222</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>tain2m0280</t>
+          <t>tain2m0228</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1102,15 +1096,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B2A1S</t>
+          <t>B2R3D</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2978221</v>
+        <v>2978241</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>tain2m0280</t>
+          <t>tain2m0228</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1131,15 +1125,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B2A1R</t>
+          <t>B2R3D</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2978222</v>
+        <v>2978241</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>tain2m0280</t>
+          <t>tain2m0228</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1160,25 +1154,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B2A1R</t>
+          <t>B2D1E</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2978222</v>
+        <v>5019491</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>tain2m0228</t>
+          <t>tain2m0267</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6517970W</t>
+          <t>6469032W</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ADS1298IPAGR</t>
+          <t>ADS1217IPFBR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1189,25 +1183,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B2R3D</t>
+          <t>B2D2G</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2978241</v>
+        <v>5023062</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>tain2m0228</t>
+          <t>tain2m0267</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6517970W</t>
+          <t>6469032W</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ADS1298IPAGR</t>
+          <t>ADS1217IPFBR</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1218,25 +1212,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B2R3D</t>
+          <t>B2C2M</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2978241</v>
+        <v>5019492</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>tain2m0228</t>
+          <t>tain2m0267</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6517970W</t>
+          <t>6469032W</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ADS1298IPAGR</t>
+          <t>ADS1217IPFBR</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1247,28 +1241,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B2D1E</t>
+          <t>B2R2F</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5019491</v>
+        <v>5013520</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>tain2m0267</t>
+          <t>tain4m0256</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6469032W</t>
+          <t>6449856W</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ADS1217IPFBR</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>RL16C550CPTR</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>358</v>
+      </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
@@ -1276,28 +1272,30 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B2D2G</t>
+          <t>B2B1F</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5023062</v>
+        <v>5005280</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>tain2m0267</t>
+          <t>tain4m0256</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6469032W</t>
+          <t>6449856W</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ADS1217IPFBR</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>RL16C550CPTR</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>358</v>
+      </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
@@ -1305,28 +1303,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B2C2M</t>
+          <t>B2C1L</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5019492</v>
+        <v>2982563</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>tain2m0267</t>
+          <t>tain4m0256</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6469032W</t>
+          <t>6449856W</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ADS1217IPFBR</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>RL16C550CPTR</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>358</v>
+      </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
@@ -1334,15 +1334,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B2R2F</t>
+          <t>B2C1M</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5013520</v>
+        <v>2982562</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tain4m0256</t>
+          <t>tain4m0193</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1365,15 +1365,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B2B1F</t>
+          <t>B2B4J</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5005280</v>
+        <v>5005281</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tain4m0256</t>
+          <t>tain4m0193</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1396,15 +1396,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B2C1L</t>
+          <t>B2R1E</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2982563</v>
+        <v>2978209</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>tain4m0256</t>
+          <t>tain4m0193</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1427,30 +1427,28 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B2C1M</t>
+          <t>B4A1B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2982562</v>
+        <v>5024607</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>tain4m0193</t>
+          <t>tain4m0032</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6449856W</t>
+          <t>6587366J</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RL16C550CPTR</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>358</v>
-      </c>
+          <t>PL455ATPFCRQ1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
         <v>1</v>
       </c>
@@ -1458,92 +1456,88 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B2B4J</t>
+          <t>B2Q1A</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5005281</v>
+        <v>2927667</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tain4m0193</t>
+          <t>tain2c0646</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6449856W</t>
+          <t>6454680RX</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RL16C550CPTR</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>358</v>
-      </c>
+          <t>TVP5147M1IPFPR</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B2R1E</t>
+          <t>B2B2G</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2978209</v>
+        <v>2999341</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tain4m0193</t>
+          <t>tain2c0112</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6449856W</t>
+          <t>6477706W</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RL16C550CPTR</t>
+          <t>430F2252IDAR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>358</v>
+        <v>391.5</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B2B2G</t>
+          <t>B2B2C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2999341</v>
+        <v>2876323</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tain4m0254</t>
+          <t>tain4m0001</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6477706W</t>
+          <t>6472949J</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>UD3138128APFCR</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>421.5</v>
-      </c>
+          <t>4DRV401AIDWPR</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
         <v>1</v>
       </c>
@@ -1551,25 +1545,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B4A1B</t>
+          <t>B2A5L</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5024607</v>
+        <v>2880932</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>tain4m0032</t>
+          <t>tain2c0055</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6587366J</t>
+          <t>6484656W</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PL455ATPFCRQ1</t>
+          <t>ADS1274IPAPR</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1580,85 +1574,83 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B2G1L</t>
+          <t>B2A3M</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5030875</v>
+        <v>2951507</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tain2m0082</t>
+          <t>tain2c0055</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6449856W</t>
+          <t>6484656W</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TFP410PAP</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>358</v>
-      </c>
+          <t>ADS1274IPAPR</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B2Q1A</t>
+          <t>B2A5L</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2927667</v>
+        <v>2919163</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>tain2c0646</t>
+          <t>tain2c0055</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6454680RX</t>
+          <t>6484656W</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TVP5147M1IPFPR</t>
+          <t>ADS1274IPAPR</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B2B2C</t>
+          <t>B2B2J</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2876323</v>
+        <v>5034973</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>tain4m0001</t>
+          <t>tain2c0198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6472949J</t>
+          <t>6541997RT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4DRV401AIDWPR</t>
+          <t>SNB7082DCAR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1669,177 +1661,175 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B2F4I</t>
+          <t>B2F3K</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5032876</v>
+        <v>5034972</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tain4c0297</t>
+          <t>tain2c0198</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6568284RS</t>
+          <t>6541997RT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SN75ALS174ADWR</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>284.5</v>
-      </c>
+          <t>SNB7082DCAR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B2A5L</t>
+          <t>B2G1O</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2880932</v>
+        <v>5034971</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>tain2c0055</t>
+          <t>tain2c0198</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6484656W</t>
+          <t>6541997RT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ADS1274IPAPR</t>
+          <t>SNB7082DCAR</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B2A3M</t>
+          <t>B2F2E</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2951507</v>
+        <v>5034970</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>tain2c0055</t>
+          <t>tain2c0132</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6484656W</t>
+          <t>6541997RT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ADS1274IPAPR</t>
+          <t>SNB7082DCAR</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B2A5L</t>
+          <t>B2N2F</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2919163</v>
+        <v>5034974</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>tain2c0055</t>
+          <t>tain2c0132</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6484656W</t>
+          <t>6541997RT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ADS1274IPAPR</t>
+          <t>SNB7082DCAR</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B4G1D</t>
+          <t>B2D2F</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2999801</v>
+        <v>5034975</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tain2c0162</t>
+          <t>tain2c0132</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6527567RT1</t>
+          <t>6541997RT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DRV8343SPHPRQ1</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>282.2222222222222</v>
-      </c>
+          <t>SNB7082DCAR</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B2B2J</t>
+          <t>B2F4I</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5034973</v>
+        <v>5032876</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>tain2c0198</t>
+          <t>tain2c0221</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6541997RT</t>
+          <t>6568284RS</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SNB7082DCAR</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>TAS5760MDCAR</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>284.5</v>
+      </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
@@ -1847,234 +1837,232 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B2F3K</t>
+          <t>B2C5H</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5034972</v>
+        <v>5004980</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>tain2c0198</t>
+          <t>tain2m0069</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6541997RT</t>
+          <t>6501657W</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SNB7082DCAR</t>
+          <t>ADS1675IPAGR</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B2G1O</t>
+          <t>B2E3B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5034971</v>
+        <v>2989536</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tain2c0198</t>
+          <t>tain2c0300</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6541997RT</t>
+          <t>6513692W1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SNB7082DCAR</t>
+          <t>TPS70751PWPR</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B2F2E</t>
+          <t>B2H1G</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5034970</v>
+        <v>5012553</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>tain2c0132</t>
+          <t>tain2c0300</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6541997RT</t>
+          <t>6513692W1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SNB7082DCAR</t>
+          <t>TPS70751PWPR</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B2N2F</t>
+          <t>B2E3B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5034974</v>
+        <v>2989536</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>tain2c0132</t>
+          <t>tain2c0300</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6541997RT</t>
+          <t>6513692W1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SNB7082DCAR</t>
+          <t>TPS70751PWPR</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B2D2F</t>
+          <t>B2E3A</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5034975</v>
+        <v>5033655</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tain2c0132</t>
+          <t>tain2c0515</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6541997RT</t>
+          <t>6574317RX1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SNB7082DCAR</t>
+          <t>PCM1863DBTR</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B2C5H</t>
+          <t>B2H4D</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5004980</v>
+        <v>5033653</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tain2m0069</t>
+          <t>tain2c0515</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6501657W</t>
+          <t>6574317RX1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ADS1675IPAGR</t>
+          <t>PCM1863DBTR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B2A5A</t>
+          <t>B2E2J</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5034913</v>
+        <v>5033652</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>tain2c0464</t>
+          <t>tain2c0515</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6581597RW1</t>
+          <t>6574317RX1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2C7218QPFPRQ1</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>191.6</v>
-      </c>
+          <t>PCM1863DBTR</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B2A3S</t>
+          <t>B4G1D</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2989669</v>
+        <v>2999801</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tain2c0465</t>
+          <t>tain2c0311</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6598442V</t>
+          <t>6527567RT1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>H4H160BQPWPRQ1</t>
+          <t>DRV8302DCAR</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>153.5</v>
+        <v>262</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2083,98 +2071,104 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B2E3A</t>
+          <t>B2N4K</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5033655</v>
+        <v>2999800</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>tain2c0515</t>
+          <t>tain2c0311</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6574317RX1</t>
+          <t>6527567RT1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PCM1863DBTR</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>DRV8302DCAR</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>262</v>
+      </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B2H4D</t>
+          <t>B2N4H</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5033653</v>
+        <v>2999799</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tain2c0515</t>
+          <t>tain2c0311</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6574317RX1</t>
+          <t>6527567RT1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PCM1863DBTR</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>DRV8302DCAR</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>262</v>
+      </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B2E2J</t>
+          <t>B4P2D</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5033652</v>
+        <v>5050989</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>tain2c0515</t>
+          <t>tain4m0259</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6574317RX1</t>
+          <t>6527568J1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PCM1863DBTR</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>DRV8301DCAR</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B4P2D</t>
+          <t>B4Q3B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5050989</v>
+        <v>5011539</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2191,19 +2185,21 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B4Q3B</t>
+          <t>B4Q1C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5011539</v>
+        <v>5011538</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2220,38 +2216,42 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B4Q1C</t>
+          <t>B4G2D</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5011538</v>
+        <v>2999802</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>tain4m0259</t>
+          <t>tain2c0273</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6527568J1</t>
+          <t>6527567RT1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DRV8301DCAR</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+          <t>DRV8302DCAR</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>262</v>
+      </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2278,7 +2278,9 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
@@ -2307,7 +2309,9 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G63" t="n">
         <v>2</v>
       </c>
@@ -2336,7 +2340,9 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G64" t="n">
         <v>3</v>
       </c>
@@ -2365,7 +2371,9 @@
           <t>SN1712013DCAR</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>260</v>
+      </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
@@ -2394,7 +2402,9 @@
           <t>SN1712013DCAR</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>260</v>
+      </c>
       <c r="G66" t="n">
         <v>2</v>
       </c>
@@ -2423,7 +2433,9 @@
           <t>SN1712013DCAR</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>260</v>
+      </c>
       <c r="G67" t="n">
         <v>3</v>
       </c>
@@ -2452,7 +2464,9 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
@@ -2481,7 +2495,9 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
@@ -2510,7 +2526,9 @@
           <t>DRV8301DCAR</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>282.2222222222222</v>
+      </c>
       <c r="G70" t="n">
         <v>3</v>
       </c>
@@ -3591,28 +3609,30 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>B2R1B</t>
+          <t>B2H5I</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5046247</v>
+        <v>5049998</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>tamf2c0677</t>
+          <t>tain2c0128</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>6582149RT1</t>
+          <t>6583414RT1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HU92630QPWPRQ1</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
+          <t>HPS23751PWPR</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>813</v>
+      </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
@@ -3620,28 +3640,30 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>B2R1B</t>
+          <t>B2H5I</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5046246</v>
+        <v>5049998</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>tamf2c0677</t>
+          <t>tain2c0128</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6582149RT1</t>
+          <t>6583414RT1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>HU92630QPWPRQ1</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>HPS23751PWPR</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>813</v>
+      </c>
       <c r="G109" t="n">
         <v>2</v>
       </c>
@@ -3653,7 +3675,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5046245</v>
+        <v>5046247</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3672,7 +3694,7 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3682,11 +3704,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5046244</v>
+        <v>5046246</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>tamf2c0684</t>
+          <t>tamf2c0677</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3701,7 +3723,7 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3711,11 +3733,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>5046243</v>
+        <v>5046245</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>tamf2c0684</t>
+          <t>tamf2c0677</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3730,7 +3752,7 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -3740,7 +3762,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5046242</v>
+        <v>5046244</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3759,7 +3781,7 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3769,11 +3791,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5046241</v>
+        <v>5046243</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>tamf2c0695</t>
+          <t>tamf2c0684</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3788,7 +3810,7 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3798,11 +3820,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5046240</v>
+        <v>5046242</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>tamf2c0695</t>
+          <t>tamf2c0684</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3817,31 +3839,31 @@
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>B2C3G</t>
+          <t>B2R1B</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5035968</v>
+        <v>5046241</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>tain2m0219</t>
+          <t>tamf2c0695</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>6588241W1</t>
+          <t>6582149RT1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MSP430V254IPZR</t>
+          <t>HU92630QPWPRQ1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -3852,25 +3874,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>B2C6F</t>
+          <t>B2R1B</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5035958</v>
+        <v>5046240</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>tain2m0219</t>
+          <t>tamf2c0695</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>6588241W1</t>
+          <t>6582149RT1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MSP430V254IPZR</t>
+          <t>HU92630QPWPRQ1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -3881,202 +3903,216 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>B2R1J</t>
+          <t>B2A5A</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5035972</v>
+        <v>5034913</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>tain2m0219</t>
+          <t>tain2c0139</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>6588241W1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MSP430V254IPZR</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>221</v>
+      </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>B2A2Q</t>
+          <t>B2G3H</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5035973</v>
+        <v>5034912</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>tain2m0217</t>
+          <t>tain2c0139</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>6588241W1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MSP430F448IPZR</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>221</v>
+      </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>B2F2G</t>
+          <t>B2A6S</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>5012579</v>
+        <v>5034905</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>tain2c0261</t>
+          <t>tain2c0139</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>6605502RS1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TAS5760LDAPR</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>221</v>
+      </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>B2D4F</t>
+          <t>B2G2L</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>5012580</v>
+        <v>5034904</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>tain2c0261</t>
+          <t>tain2c0201</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>6605502RS1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>TAS5760LDAPR</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>221</v>
+      </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>B434B</t>
+          <t>B2R2J</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5000831</v>
+        <v>5034903</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>tain4c0081</t>
+          <t>tain2c0201</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>6622061N</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ISO7741FSDBQR</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>221</v>
+      </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>B435B</t>
+          <t>B2A4I</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5000832</v>
+        <v>5034902</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>tain4c0081</t>
+          <t>tain2c0201</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6622061N</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ISO7741FSDBQR</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>221</v>
+      </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>B2R3J</t>
+          <t>B2A5C</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>5022407</v>
+        <v>5034901</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>tain2c0033</t>
+          <t>tain2c0056</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10001758W1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TPS5130PTR</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
+          <t>MSP430FG439IPN</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>205.3333333333333</v>
+      </c>
       <c r="G124" t="n">
         <v>1</v>
       </c>
@@ -4084,290 +4120,954 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>B2R04</t>
+          <t>B2A4E</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5025252</v>
+        <v>5034900</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>tain4m0097</t>
+          <t>tain2c0056</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
+          <t>MSP430FG439IPN</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>205.3333333333333</v>
+      </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>B4A3D</t>
+          <t>B2A2M</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5050467</v>
+        <v>5034899</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>tain4m0097</t>
+          <t>tain2c0056</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
+          <t>MSP430FG439IPN</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>205.3333333333333</v>
+      </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>B2R04</t>
+          <t>B2R1H</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5037655</v>
+        <v>5034898</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>tain4m0097</t>
+          <t>tain2c0211</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>221</v>
+      </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>B2R04</t>
+          <t>B2Q2F</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5028777</v>
+        <v>5034897</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>tain4m0042</t>
+          <t>tain2c0211</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>221</v>
+      </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>B2R04</t>
+          <t>B2R2I</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5025253</v>
+        <v>5028200</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>tain4m0042</t>
+          <t>tain2c0211</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>221</v>
+      </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>B2R04</t>
+          <t>B2A2P</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5025252</v>
+        <v>5028199</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>tain4m0042</t>
+          <t>tain2c0288</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>221</v>
+      </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>B2R04</t>
+          <t>B2A2G</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5025254</v>
+        <v>5028198</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>tain4m0101</t>
+          <t>tain2c0288</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>221</v>
+      </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>B2A1I</t>
+          <t>B2R3G</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5028778</v>
+        <v>5028196</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>tain4m0101</t>
+          <t>tain2c0288</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>221</v>
+      </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>B4K2C</t>
+          <t>B2R3C</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5025255</v>
+        <v>5028195</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>tain4m0101</t>
+          <t>tain2c0129</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10000454R1</t>
+          <t>6581597RW1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>S320F28027FPTQ</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>221</v>
+      </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>B2A4A</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5023109</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>tain2c0129</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>6581597RW1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>221</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B2G2H</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5034906</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>tain2c0129</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>6581597RW1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>221</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B2R2J</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>5023111</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>tain2m0221</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6581597RW1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>221</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B2C6K</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>5028201</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>tain2m0221</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6581597RW1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>430FG438IPNR</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>221</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B2C3G</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>5035968</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>tain2m0219</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6588241W1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>MSP430V254IPZR</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B2C6F</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>5035958</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>tain2m0219</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>6588241W1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>MSP430V254IPZR</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B2R1J</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>5035972</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>tain2m0219</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>6588241W1</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MSP430V254IPZR</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B2A2Q</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5035973</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>tain2m0217</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>6588241W1</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MSP430F448IPZR</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B2F2G</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>5012579</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>tain2c0261</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>6605502RS1</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>TAS5760LDAPR</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B2D4F</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>5012580</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>tain2c0261</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6605502RS1</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>TAS5760LDAPR</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>B434B</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>5000831</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>tain4c0081</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>6622061N</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>ISO7741FSDBQR</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>B435B</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5000832</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>tain4c0081</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>6622061N</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>ISO7741FSDBQR</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>B2R3J</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5022407</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>tain2c0033</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>10001758W1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>TPS5130PTR</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>B2R04</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>5025252</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>tain4m0097</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>B4A3D</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>5050467</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>tain4m0097</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>B2R04</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>5037655</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>tain4m0097</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>B2R04</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>5028777</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>tain4m0042</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>B2R04</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>5025253</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>tain4m0042</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>B2R04</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>5025252</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>tain4m0042</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>B2R04</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>5025254</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>tain4m0101</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>B2A1I</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>5028778</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>tain4m0101</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>B4K2C</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>5025255</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>tain4m0101</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>10000454R1</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>S320F28027FPTQ</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
           <t>B4C3D</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B156" t="n">
         <v>5037656</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>tain4m0204</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>10000454R1</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>S320F28027FPTQ</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="n">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="299">
   <si>
     <t>LOC</t>
   </si>
@@ -46,6 +46,24 @@
     <t>B2A4M</t>
   </si>
   <si>
+    <t>A-C0323</t>
+  </si>
+  <si>
+    <t>A-C0198</t>
+  </si>
+  <si>
+    <t>A-C0006</t>
+  </si>
+  <si>
+    <t>B2A3S</t>
+  </si>
+  <si>
+    <t>B2A3P</t>
+  </si>
+  <si>
+    <t>B2C1I</t>
+  </si>
+  <si>
     <t>B2A5M</t>
   </si>
   <si>
@@ -73,7 +91,25 @@
     <t>B2G4L</t>
   </si>
   <si>
-    <t>A-C0017</t>
+    <t>A-C0640</t>
+  </si>
+  <si>
+    <t>A-C0245</t>
+  </si>
+  <si>
+    <t>B2E1B</t>
+  </si>
+  <si>
+    <t>A-C0178</t>
+  </si>
+  <si>
+    <t>B2H5I</t>
+  </si>
+  <si>
+    <t>A-C0732</t>
+  </si>
+  <si>
+    <t>A-C0741</t>
   </si>
   <si>
     <t>B2R2B</t>
@@ -325,9 +361,6 @@
     <t>B2A1A</t>
   </si>
   <si>
-    <t>B2H5I</t>
-  </si>
-  <si>
     <t>B2R1B</t>
   </si>
   <si>
@@ -430,6 +463,12 @@
     <t>tain2c0002</t>
   </si>
   <si>
+    <t>tain2c0006</t>
+  </si>
+  <si>
+    <t>tain2c0007</t>
+  </si>
+  <si>
     <t>tain2c0011</t>
   </si>
   <si>
@@ -445,6 +484,9 @@
     <t>tain2c0017</t>
   </si>
   <si>
+    <t>tain2c0018</t>
+  </si>
+  <si>
     <t>tamf2c0673</t>
   </si>
   <si>
@@ -565,9 +607,6 @@
     <t>tain2m0198</t>
   </si>
   <si>
-    <t>tain2c0128</t>
-  </si>
-  <si>
     <t>tamf2c0677</t>
   </si>
   <si>
@@ -628,6 +667,15 @@
     <t>6581597RW1</t>
   </si>
   <si>
+    <t>6599962W</t>
+  </si>
+  <si>
+    <t>6493165W</t>
+  </si>
+  <si>
+    <t>6598442V</t>
+  </si>
+  <si>
     <t>6469955RW</t>
   </si>
   <si>
@@ -637,7 +685,10 @@
     <t>6568896RS</t>
   </si>
   <si>
-    <t>6609111V</t>
+    <t>6583414RT1</t>
+  </si>
+  <si>
+    <t>6544665RT1</t>
   </si>
   <si>
     <t>6582149RT1</t>
@@ -715,9 +766,6 @@
     <t>6581603W1</t>
   </si>
   <si>
-    <t>6583414RT1</t>
-  </si>
-  <si>
     <t>6588241W1</t>
   </si>
   <si>
@@ -733,7 +781,16 @@
     <t>10000454R1</t>
   </si>
   <si>
-    <t>MSP430FG439IPN</t>
+    <t>430FG438IPNR</t>
+  </si>
+  <si>
+    <t>DS114S08BIPBSR</t>
+  </si>
+  <si>
+    <t>MSP430V320SPM</t>
+  </si>
+  <si>
+    <t>ADS8588SIPMR</t>
   </si>
   <si>
     <t>ADS1602IPFBR</t>
@@ -742,10 +799,16 @@
     <t>2ELVDS84ADGGR</t>
   </si>
   <si>
-    <t>TAS5754MDCA</t>
-  </si>
-  <si>
-    <t>ADS8588HIPMR</t>
+    <t>TAS5756MDCAR</t>
+  </si>
+  <si>
+    <t>TAS5766MDCAR</t>
+  </si>
+  <si>
+    <t>HPS23751PWPR</t>
+  </si>
+  <si>
+    <t>2060ASDFDRG4</t>
   </si>
   <si>
     <t>HU92630QPWPRQ1</t>
@@ -766,7 +829,7 @@
     <t>TVP5147M1IPFPR</t>
   </si>
   <si>
-    <t>430F2252IDAR</t>
+    <t>MSP430F2232IDA</t>
   </si>
   <si>
     <t>4DRV401AIDWPR</t>
@@ -784,7 +847,7 @@
     <t>ADS1675IPAGR</t>
   </si>
   <si>
-    <t>TPS70751PWPR</t>
+    <t>TPS70151PWPR</t>
   </si>
   <si>
     <t>PCM1863DBTR</t>
@@ -802,6 +865,9 @@
     <t>L720M05PWPRQ1</t>
   </si>
   <si>
+    <t>S2111023QPWRQ1</t>
+  </si>
+  <si>
     <t>UCC28951PWR</t>
   </si>
   <si>
@@ -826,25 +892,22 @@
     <t>430FG479IPNR</t>
   </si>
   <si>
-    <t>HPS23751PWPR</t>
-  </si>
-  <si>
-    <t>430FG438IPNR</t>
+    <t>MSP430F448IPZR</t>
+  </si>
+  <si>
+    <t>MSP430F449IPZ</t>
   </si>
   <si>
     <t>MSP430V254IPZR</t>
   </si>
   <si>
-    <t>MSP430F448IPZR</t>
-  </si>
-  <si>
     <t>TAS5760LDAPR</t>
   </si>
   <si>
     <t>ISO7741FSDBQR</t>
   </si>
   <si>
-    <t>TPS5130PTR</t>
+    <t>TPS5130PT</t>
   </si>
   <si>
     <t>S320F28027FPTQ</t>
@@ -1205,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,13 +1305,13 @@
         <v>5034920</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1262,13 +1325,13 @@
         <v>5034918</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1282,13 +1345,13 @@
         <v>5034917</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1299,16 +1362,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5030867</v>
+        <v>5039438</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1316,19 +1379,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>5030867</v>
+        <v>5039439</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1336,19 +1399,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>5030868</v>
+        <v>5019795</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1356,19 +1419,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>5013439</v>
+        <v>2989669</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1376,19 +1439,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>2928990</v>
+        <v>2989668</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1396,19 +1459,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>5013440</v>
+        <v>2989670</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1416,22 +1479,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>5034916</v>
+        <v>5030867</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11">
-        <v>191.6</v>
+        <v>259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1442,19 +1502,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>5034915</v>
+        <v>5030867</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12">
-        <v>191.6</v>
+        <v>259</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1465,19 +1522,16 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>5034914</v>
+        <v>5030868</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13">
-        <v>191.6</v>
+        <v>259</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1488,16 +1542,16 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>5033181</v>
+        <v>5013439</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1508,22 +1562,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>2942483</v>
+        <v>2928990</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1531,96 +1582,96 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2946260</v>
+        <v>5013440</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>5046249</v>
+        <v>5034916</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>5046248</v>
+        <v>5034915</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E18" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>2928991</v>
+        <v>5034914</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>2978221</v>
+        <v>5033181</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1628,19 +1679,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>2978221</v>
+        <v>5033197</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1648,19 +1699,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>2978222</v>
+        <v>5033182</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1668,19 +1719,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>2978222</v>
+        <v>5049996</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1688,19 +1739,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>2978241</v>
+        <v>5049995</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1708,19 +1759,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>2978241</v>
+        <v>5049998</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1728,19 +1779,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>5019491</v>
+        <v>5049998</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1748,19 +1799,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>5023062</v>
+        <v>5043299</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E27" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1768,19 +1819,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>5019492</v>
+        <v>5043298</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1788,19 +1839,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>5013520</v>
+        <v>2946260</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1808,19 +1859,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>5005280</v>
+        <v>5046249</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1828,19 +1879,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>2982563</v>
+        <v>5046248</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1848,19 +1899,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>2982562</v>
+        <v>2928991</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1868,79 +1919,79 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>5005281</v>
+        <v>2978221</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>2978209</v>
+        <v>2978221</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>5024607</v>
+        <v>2978222</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>2927667</v>
+        <v>2978222</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1948,59 +1999,59 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>2999341</v>
+        <v>2978241</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E37" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>2876323</v>
+        <v>2978241</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>2880932</v>
+        <v>5019491</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E39" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2008,19 +2059,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>2951507</v>
+        <v>5023062</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2028,19 +2079,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>2919163</v>
+        <v>5019492</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -2051,16 +2102,16 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <v>5034973</v>
+        <v>5013520</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2071,16 +2122,16 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <v>5034972</v>
+        <v>5005280</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -2091,16 +2142,16 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>5034971</v>
+        <v>2982563</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -2111,16 +2162,16 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>5034970</v>
+        <v>2982562</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2131,16 +2182,16 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>5034974</v>
+        <v>5005281</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -2151,16 +2202,16 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <v>5034975</v>
+        <v>2978209</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -2171,16 +2222,16 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <v>5032876</v>
+        <v>5024607</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2191,16 +2242,16 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <v>5004980</v>
+        <v>2927667</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2211,16 +2262,16 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>2989536</v>
+        <v>2999341</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2231,79 +2282,79 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>5012553</v>
+        <v>2876323</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>2989536</v>
+        <v>2880932</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53">
-        <v>5033655</v>
+        <v>2951507</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>5033653</v>
+        <v>2919163</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2311,19 +2362,19 @@
         <v>51</v>
       </c>
       <c r="B55">
-        <v>5033652</v>
+        <v>5034973</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2331,19 +2382,19 @@
         <v>52</v>
       </c>
       <c r="B56">
-        <v>2999801</v>
+        <v>5034972</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2351,19 +2402,19 @@
         <v>53</v>
       </c>
       <c r="B57">
-        <v>2999800</v>
+        <v>5034971</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2371,19 +2422,19 @@
         <v>54</v>
       </c>
       <c r="B58">
-        <v>2999799</v>
+        <v>5034970</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2391,19 +2442,19 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>5050989</v>
+        <v>5034974</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2411,19 +2462,19 @@
         <v>56</v>
       </c>
       <c r="B60">
-        <v>5011539</v>
+        <v>5034975</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2431,19 +2482,19 @@
         <v>57</v>
       </c>
       <c r="B61">
-        <v>5011538</v>
+        <v>5032876</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2451,16 +2502,16 @@
         <v>58</v>
       </c>
       <c r="B62">
-        <v>2999802</v>
+        <v>5004980</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E62" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2471,16 +2522,16 @@
         <v>59</v>
       </c>
       <c r="B63">
-        <v>5011537</v>
+        <v>2989536</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2491,16 +2542,16 @@
         <v>60</v>
       </c>
       <c r="B64">
-        <v>5011500</v>
+        <v>5012553</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2508,19 +2559,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B65">
-        <v>5011499</v>
+        <v>2989536</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -2528,19 +2579,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66">
-        <v>5011498</v>
+        <v>5033655</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2548,19 +2599,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <v>5011497</v>
+        <v>5033653</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -2568,19 +2619,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68">
-        <v>5011496</v>
+        <v>5033652</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -2588,19 +2639,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69">
-        <v>5011494</v>
+        <v>2999801</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E69" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2608,19 +2659,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70">
-        <v>5011493</v>
+        <v>2999800</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -2628,19 +2679,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>5011492</v>
+        <v>2999799</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -2648,19 +2699,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72">
-        <v>2987690</v>
+        <v>5050989</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2668,19 +2719,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73">
-        <v>2987689</v>
+        <v>5011539</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -2688,19 +2739,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B74">
-        <v>2987686</v>
+        <v>5011538</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -2711,16 +2762,16 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>2987685</v>
+        <v>2999802</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2731,19 +2782,19 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>2987692</v>
+        <v>5011537</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2751,19 +2802,19 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>2987687</v>
+        <v>5011500</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2771,19 +2822,19 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>2987688</v>
+        <v>5011499</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2791,16 +2842,16 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>5044466</v>
+        <v>5011498</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2811,16 +2862,16 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>5044325</v>
+        <v>5011497</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2828,99 +2879,99 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>5045992</v>
+        <v>5011496</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E81" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82">
-        <v>5045991</v>
+        <v>5011494</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83">
-        <v>5047704</v>
+        <v>5011493</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84">
-        <v>5047703</v>
+        <v>5011492</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85">
-        <v>5046905</v>
+        <v>2987690</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2928,42 +2979,42 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86">
-        <v>5030341</v>
+        <v>2987689</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B87">
-        <v>2995377</v>
+        <v>2987686</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2971,16 +3022,16 @@
         <v>82</v>
       </c>
       <c r="B88">
-        <v>5032844</v>
+        <v>2987685</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2991,16 +3042,16 @@
         <v>83</v>
       </c>
       <c r="B89">
-        <v>5032843</v>
+        <v>2987692</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -3011,16 +3062,16 @@
         <v>84</v>
       </c>
       <c r="B90">
-        <v>5032842</v>
+        <v>2987687</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E90" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -3031,16 +3082,16 @@
         <v>85</v>
       </c>
       <c r="B91">
-        <v>5002234</v>
+        <v>2987688</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3051,19 +3102,19 @@
         <v>86</v>
       </c>
       <c r="B92">
-        <v>5002233</v>
+        <v>5044466</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3071,36 +3122,36 @@
         <v>87</v>
       </c>
       <c r="B93">
-        <v>5002232</v>
+        <v>5044325</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B94">
-        <v>5040400</v>
+        <v>5045992</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3108,19 +3159,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95">
-        <v>5040399</v>
+        <v>5045991</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D95" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -3128,99 +3179,99 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96">
-        <v>5040398</v>
+        <v>5047704</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97">
-        <v>5040397</v>
+        <v>5047703</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98">
-        <v>5040396</v>
+        <v>5046905</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
-        <v>5040395</v>
+        <v>5030341</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100">
-        <v>5040394</v>
+        <v>2995377</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E100" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3228,182 +3279,182 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101">
-        <v>5040393</v>
+        <v>5032844</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E101" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102">
-        <v>5040391</v>
+        <v>5032843</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E102" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103">
-        <v>5040390</v>
+        <v>5032842</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E103" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
-        <v>5040389</v>
+        <v>5002234</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
-        <v>5040388</v>
+        <v>5002233</v>
       </c>
       <c r="C105" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106">
-        <v>5040387</v>
+        <v>5002232</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107">
-        <v>5023120</v>
+        <v>5040400</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E107" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108">
-        <v>5023119</v>
+        <v>5040399</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E108" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
-        <v>5049998</v>
+        <v>5040398</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D109" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E109" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3411,19 +3462,19 @@
         <v>103</v>
       </c>
       <c r="B110">
-        <v>5049998</v>
+        <v>5040397</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E110" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3431,176 +3482,176 @@
         <v>104</v>
       </c>
       <c r="B111">
-        <v>5046247</v>
+        <v>5040396</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E111" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B112">
-        <v>5046246</v>
+        <v>5040395</v>
       </c>
       <c r="C112" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D112" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E112" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113">
-        <v>5046245</v>
+        <v>5040394</v>
       </c>
       <c r="C113" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D113" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B114">
-        <v>5046244</v>
+        <v>5040393</v>
       </c>
       <c r="C114" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E114" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B115">
-        <v>5046243</v>
+        <v>5040391</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D115" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B116">
-        <v>5046242</v>
+        <v>5040390</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E116" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B117">
-        <v>5046241</v>
+        <v>5040389</v>
       </c>
       <c r="C117" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E117" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B118">
-        <v>5046240</v>
+        <v>5040388</v>
       </c>
       <c r="C118" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D118" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E118" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B119">
-        <v>5034913</v>
+        <v>5040387</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E119" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -3608,19 +3659,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B120">
-        <v>5034912</v>
+        <v>5023120</v>
       </c>
       <c r="C120" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D120" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E120" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -3628,19 +3679,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B121">
-        <v>5034905</v>
+        <v>5023119</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D121" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E121" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -3648,19 +3699,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B122">
-        <v>5034904</v>
+        <v>5046247</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D122" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E122" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -3668,19 +3719,19 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B123">
-        <v>5034903</v>
+        <v>5046246</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D123" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E123" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -3688,19 +3739,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B124">
-        <v>5034902</v>
+        <v>5046245</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D124" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E124" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -3708,19 +3759,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B125">
-        <v>5034901</v>
+        <v>5046244</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D125" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -3728,19 +3779,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B126">
-        <v>5034900</v>
+        <v>5046243</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D126" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -3748,19 +3799,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127">
-        <v>5034899</v>
+        <v>5046242</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D127" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -3768,19 +3819,19 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B128">
-        <v>5034898</v>
+        <v>5046241</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D128" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E128" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -3791,16 +3842,16 @@
         <v>115</v>
       </c>
       <c r="B129">
-        <v>5034897</v>
+        <v>5046240</v>
       </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D129" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E129" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -3811,19 +3862,19 @@
         <v>116</v>
       </c>
       <c r="B130">
-        <v>5028200</v>
+        <v>5034913</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D130" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E130" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3831,19 +3882,19 @@
         <v>117</v>
       </c>
       <c r="B131">
-        <v>5028199</v>
+        <v>5034912</v>
       </c>
       <c r="C131" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D131" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E131" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3851,156 +3902,156 @@
         <v>118</v>
       </c>
       <c r="B132">
-        <v>5028198</v>
+        <v>5034905</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D132" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E132" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B133">
-        <v>5028196</v>
+        <v>5034904</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D133" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E133" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134">
-        <v>5028195</v>
+        <v>5034903</v>
       </c>
       <c r="C134" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D134" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E134" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B135">
-        <v>5023109</v>
+        <v>5034902</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D135" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E135" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136">
-        <v>5034906</v>
+        <v>5034901</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D136" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B137">
-        <v>5023111</v>
+        <v>5034900</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D137" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138">
-        <v>5028201</v>
+        <v>5034899</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D138" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B139">
-        <v>5035968</v>
+        <v>5034898</v>
       </c>
       <c r="C139" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E139" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -4008,19 +4059,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B140">
-        <v>5035958</v>
+        <v>5034897</v>
       </c>
       <c r="C140" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E140" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -4028,19 +4079,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141">
-        <v>5035972</v>
+        <v>5028200</v>
       </c>
       <c r="C141" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D141" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E141" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -4048,19 +4099,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B142">
-        <v>5035973</v>
+        <v>5028199</v>
       </c>
       <c r="C142" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -4068,59 +4119,59 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143">
-        <v>5012579</v>
+        <v>5028198</v>
       </c>
       <c r="C143" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D143" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E143" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B144">
-        <v>5012580</v>
+        <v>5028196</v>
       </c>
       <c r="C144" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D144" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E144" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B145">
-        <v>5000831</v>
+        <v>5028195</v>
       </c>
       <c r="C145" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D145" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -4128,19 +4179,19 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B146">
-        <v>5000832</v>
+        <v>5023109</v>
       </c>
       <c r="C146" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D146" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -4148,39 +4199,39 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B147">
-        <v>5022407</v>
+        <v>5034906</v>
       </c>
       <c r="C147" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D147" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E147" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B148">
-        <v>5025252</v>
+        <v>5023111</v>
       </c>
       <c r="C148" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D148" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -4191,16 +4242,16 @@
         <v>133</v>
       </c>
       <c r="B149">
-        <v>5050467</v>
+        <v>5028201</v>
       </c>
       <c r="C149" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D149" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -4208,99 +4259,99 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B150">
-        <v>5037655</v>
+        <v>5035968</v>
       </c>
       <c r="C150" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D150" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B151">
-        <v>5028777</v>
+        <v>5035958</v>
       </c>
       <c r="C151" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D151" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B152">
-        <v>5025253</v>
+        <v>5035972</v>
       </c>
       <c r="C152" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D152" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B153">
-        <v>5025252</v>
+        <v>5035973</v>
       </c>
       <c r="C153" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D153" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B154">
-        <v>5025254</v>
+        <v>5012579</v>
       </c>
       <c r="C154" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D154" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -4308,19 +4359,19 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B155">
-        <v>5028778</v>
+        <v>5012580</v>
       </c>
       <c r="C155" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D155" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -4328,41 +4379,261 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B156">
-        <v>5025255</v>
+        <v>5000831</v>
       </c>
       <c r="C156" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D156" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B157">
+        <v>5000832</v>
+      </c>
+      <c r="C157" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" t="s">
+        <v>252</v>
+      </c>
+      <c r="E157" t="s">
+        <v>296</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158">
+        <v>5022407</v>
+      </c>
+      <c r="C158" t="s">
+        <v>211</v>
+      </c>
+      <c r="D158" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" t="s">
+        <v>297</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159">
+        <v>5025252</v>
+      </c>
+      <c r="C159" t="s">
+        <v>212</v>
+      </c>
+      <c r="D159" t="s">
+        <v>254</v>
+      </c>
+      <c r="E159" t="s">
+        <v>298</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160">
+        <v>5050467</v>
+      </c>
+      <c r="C160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160" t="s">
+        <v>254</v>
+      </c>
+      <c r="E160" t="s">
+        <v>298</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161">
+        <v>5037655</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161" t="s">
+        <v>254</v>
+      </c>
+      <c r="E161" t="s">
+        <v>298</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>143</v>
+      </c>
+      <c r="B162">
+        <v>5028777</v>
+      </c>
+      <c r="C162" t="s">
+        <v>213</v>
+      </c>
+      <c r="D162" t="s">
+        <v>254</v>
+      </c>
+      <c r="E162" t="s">
+        <v>298</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163">
+        <v>5025253</v>
+      </c>
+      <c r="C163" t="s">
+        <v>213</v>
+      </c>
+      <c r="D163" t="s">
+        <v>254</v>
+      </c>
+      <c r="E163" t="s">
+        <v>298</v>
+      </c>
+      <c r="G163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164">
+        <v>5025252</v>
+      </c>
+      <c r="C164" t="s">
+        <v>213</v>
+      </c>
+      <c r="D164" t="s">
+        <v>254</v>
+      </c>
+      <c r="E164" t="s">
+        <v>298</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165">
+        <v>5025254</v>
+      </c>
+      <c r="C165" t="s">
+        <v>214</v>
+      </c>
+      <c r="D165" t="s">
+        <v>254</v>
+      </c>
+      <c r="E165" t="s">
+        <v>298</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>145</v>
+      </c>
+      <c r="B166">
+        <v>5028778</v>
+      </c>
+      <c r="C166" t="s">
+        <v>214</v>
+      </c>
+      <c r="D166" t="s">
+        <v>254</v>
+      </c>
+      <c r="E166" t="s">
+        <v>298</v>
+      </c>
+      <c r="G166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167">
+        <v>5025255</v>
+      </c>
+      <c r="C167" t="s">
+        <v>214</v>
+      </c>
+      <c r="D167" t="s">
+        <v>254</v>
+      </c>
+      <c r="E167" t="s">
+        <v>298</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168">
         <v>5037656</v>
       </c>
-      <c r="C157" t="s">
-        <v>202</v>
-      </c>
-      <c r="D157" t="s">
-        <v>238</v>
-      </c>
-      <c r="E157" t="s">
-        <v>277</v>
-      </c>
-      <c r="G157">
+      <c r="C168" t="s">
+        <v>215</v>
+      </c>
+      <c r="D168" t="s">
+        <v>254</v>
+      </c>
+      <c r="E168" t="s">
+        <v>298</v>
+      </c>
+      <c r="G168">
         <v>1</v>
       </c>
     </row>
